--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H2">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N2">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O2">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P2">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q2">
-        <v>0.4318258161611112</v>
+        <v>1.040937286444445</v>
       </c>
       <c r="R2">
-        <v>3.886432345450001</v>
+        <v>9.368435578</v>
       </c>
       <c r="S2">
-        <v>0.0005598009349303073</v>
+        <v>0.001252705540834951</v>
       </c>
       <c r="T2">
-        <v>0.0005598009349303073</v>
+        <v>0.001252705540834951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H3">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.140954</v>
       </c>
       <c r="O3">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P3">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q3">
-        <v>8.576320104802445</v>
+        <v>8.262872788311112</v>
       </c>
       <c r="R3">
-        <v>77.18688094322201</v>
+        <v>74.3658550948</v>
       </c>
       <c r="S3">
-        <v>0.01111798283764204</v>
+        <v>0.009943871412741551</v>
       </c>
       <c r="T3">
-        <v>0.01111798283764204</v>
+        <v>0.009943871412741551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H4">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N4">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O4">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P4">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q4">
-        <v>9.367933415861444</v>
+        <v>28.1967915708</v>
       </c>
       <c r="R4">
-        <v>84.31140074275301</v>
+        <v>253.7711241372</v>
       </c>
       <c r="S4">
-        <v>0.01214419723948959</v>
+        <v>0.03393314611215494</v>
       </c>
       <c r="T4">
-        <v>0.01214419723948959</v>
+        <v>0.03393314611215494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H5">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N5">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O5">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P5">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q5">
-        <v>124.9440966500156</v>
+        <v>107.0020604386667</v>
       </c>
       <c r="R5">
-        <v>1124.49686985014</v>
+        <v>963.0185439479999</v>
       </c>
       <c r="S5">
-        <v>0.161972303417371</v>
+        <v>0.1287705568220396</v>
       </c>
       <c r="T5">
-        <v>0.161972303417371</v>
+        <v>0.1287705568220396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N6">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O6">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P6">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q6">
-        <v>0.9129315237666668</v>
+        <v>2.284147168126667</v>
       </c>
       <c r="R6">
-        <v>8.216383713900001</v>
+        <v>20.55732451314</v>
       </c>
       <c r="S6">
-        <v>0.001183486260907702</v>
+        <v>0.002748834008404455</v>
       </c>
       <c r="T6">
-        <v>0.001183486260907702</v>
+        <v>0.002748834008404455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.140954</v>
       </c>
       <c r="O7">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P7">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q7">
         <v>18.13136845590267</v>
@@ -883,10 +883,10 @@
         <v>163.182316103124</v>
       </c>
       <c r="S7">
-        <v>0.02350474805654815</v>
+        <v>0.02182001358142487</v>
       </c>
       <c r="T7">
-        <v>0.02350474805654815</v>
+        <v>0.02182001358142487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N8">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O8">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P8">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q8">
-        <v>19.80493385948067</v>
+        <v>61.872720341004</v>
       </c>
       <c r="R8">
-        <v>178.244404735326</v>
+        <v>556.8544830690361</v>
       </c>
       <c r="S8">
-        <v>0.02567428827977659</v>
+        <v>0.07446010495257994</v>
       </c>
       <c r="T8">
-        <v>0.02567428827977659</v>
+        <v>0.07446010495257996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N9">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O9">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P9">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q9">
-        <v>264.1467931546534</v>
+        <v>234.79652090236</v>
       </c>
       <c r="R9">
-        <v>2377.32113839188</v>
+        <v>2113.16868812124</v>
       </c>
       <c r="S9">
-        <v>0.3424288595836251</v>
+        <v>0.2825635189876098</v>
       </c>
       <c r="T9">
-        <v>0.3424288595836251</v>
+        <v>0.2825635189876098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H10">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N10">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O10">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P10">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q10">
-        <v>0.3283389578833333</v>
+        <v>1.017750643824444</v>
       </c>
       <c r="R10">
-        <v>2.95505062095</v>
+        <v>9.159755794419999</v>
       </c>
       <c r="S10">
-        <v>0.0004256448982859252</v>
+        <v>0.001224801808245405</v>
       </c>
       <c r="T10">
-        <v>0.0004256448982859252</v>
+        <v>0.001224801808245405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H11">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.140954</v>
       </c>
       <c r="O11">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P11">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q11">
-        <v>6.521008935311333</v>
+        <v>8.078819165819111</v>
       </c>
       <c r="R11">
-        <v>58.689080417802</v>
+        <v>72.709372492372</v>
       </c>
       <c r="S11">
-        <v>0.008453563362951439</v>
+        <v>0.009722373926092742</v>
       </c>
       <c r="T11">
-        <v>0.008453563362951437</v>
+        <v>0.009722373926092742</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H12">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N12">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O12">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P12">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q12">
-        <v>7.122912480380333</v>
+        <v>27.568714416012</v>
       </c>
       <c r="R12">
-        <v>64.10621232342299</v>
+        <v>248.118429744108</v>
       </c>
       <c r="S12">
-        <v>0.009233845955277461</v>
+        <v>0.03317729295738683</v>
       </c>
       <c r="T12">
-        <v>0.009233845955277459</v>
+        <v>0.03317729295738683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H13">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N13">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O13">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P13">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q13">
-        <v>95.00130134052668</v>
+        <v>104.6186137437466</v>
       </c>
       <c r="R13">
-        <v>855.0117120647401</v>
+        <v>941.5675236937197</v>
       </c>
       <c r="S13">
-        <v>0.1231557153826601</v>
+        <v>0.1259022217937022</v>
       </c>
       <c r="T13">
-        <v>0.12315571538266</v>
+        <v>0.1259022217937023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H14">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05271666666666667</v>
+        <v>0.1318966666666667</v>
       </c>
       <c r="N14">
-        <v>0.15815</v>
+        <v>0.39569</v>
       </c>
       <c r="O14">
-        <v>0.003013014833311122</v>
+        <v>0.007203585535592019</v>
       </c>
       <c r="P14">
-        <v>0.003013014833311122</v>
+        <v>0.00720358553559202</v>
       </c>
       <c r="Q14">
-        <v>0.6511184512444446</v>
+        <v>1.642993602491111</v>
       </c>
       <c r="R14">
-        <v>5.8600660612</v>
+        <v>14.78694242242</v>
       </c>
       <c r="S14">
-        <v>0.0008440827391871879</v>
+        <v>0.001977244178107207</v>
       </c>
       <c r="T14">
-        <v>0.0008440827391871879</v>
+        <v>0.001977244178107208</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H15">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.140954</v>
       </c>
       <c r="O15">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="P15">
-        <v>0.05984028449413786</v>
+        <v>0.05718145720730849</v>
       </c>
       <c r="Q15">
-        <v>12.93160356566578</v>
+        <v>13.04194527968578</v>
       </c>
       <c r="R15">
-        <v>116.384432090992</v>
+        <v>117.377507517172</v>
       </c>
       <c r="S15">
-        <v>0.01676399023699624</v>
+        <v>0.01569519828704932</v>
       </c>
       <c r="T15">
-        <v>0.01676399023699623</v>
+        <v>0.01569519828704932</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H16">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.143623666666667</v>
+        <v>3.572802</v>
       </c>
       <c r="N16">
-        <v>3.430871</v>
+        <v>10.718406</v>
       </c>
       <c r="O16">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="P16">
-        <v>0.06536367508173861</v>
+        <v>0.1951299108549691</v>
       </c>
       <c r="Q16">
-        <v>14.12521917128978</v>
+        <v>44.50522501681201</v>
       </c>
       <c r="R16">
-        <v>127.126972541608</v>
+        <v>400.547025151308</v>
       </c>
       <c r="S16">
-        <v>0.01831134360719498</v>
+        <v>0.05355936683284733</v>
       </c>
       <c r="T16">
-        <v>0.01831134360719498</v>
+        <v>0.05355936683284734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H17">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.25299333333333</v>
+        <v>13.55818</v>
       </c>
       <c r="N17">
-        <v>45.75898</v>
+        <v>40.67453999999999</v>
       </c>
       <c r="O17">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="P17">
-        <v>0.8717830255908123</v>
+        <v>0.7404850464021304</v>
       </c>
       <c r="Q17">
-        <v>188.3940321727823</v>
+        <v>168.8898102157466</v>
       </c>
       <c r="R17">
-        <v>1695.54628955504</v>
+        <v>1520.00829194172</v>
       </c>
       <c r="S17">
-        <v>0.2442261472071562</v>
+        <v>0.2032487487987787</v>
       </c>
       <c r="T17">
-        <v>0.2442261472071562</v>
+        <v>0.2032487487987787</v>
       </c>
     </row>
   </sheetData>
